--- a/hasil_ekstraksi_cv.xlsx
+++ b/hasil_ekstraksi_cv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,110 +468,294 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1. CV - Reno Putro Setyo Singgih.pdf</t>
+          <t>1. Alvin Yosi Eka Putra_CV.pdf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>S1 Sistem Informasi</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>yang penuh</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3. Mochamad Nur Ihsan Al-Fajri_CV.pdf</t>
+          <t>1. CV - Bagas Satrio Wicaksono.pdf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>● Leading the Team and Developing Strategies: Developing and implementing strategic plans to advance the university's</t>
+          <t>yang penuh</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Graphic Design, Software Proficiency, UI/UX Design</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CV - Muhammad Raihan Al Farizi.pdf</t>
+          <t>1. CV - Reno Putro Setyo Singgih.pdf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D3 Sistem Informasi</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Memahami html, css dan Java script, Sudah mempelajari android studio</t>
-        </is>
-      </c>
+          <t>S1 Sistem Informasi</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CV Anggi Riantika - Anggi Riantika.pdf</t>
+          <t>1. Muh. Haris Maulana Koliq Abiansyah_CV.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D3 Sistem Informasi</t>
+          <t>S1 SI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>a. Desain (Figma, Canva), b. Microsoft Excel &amp; Word, c. HTML &amp; CSS dasar, d. PHP, e. Komunikasi &amp; manajemen acara, Terbuka untuk peluang magang di bidang IT dan desain digital.</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2. Sandyka Dwi Kurniawan_CV.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>S1 Sistem Informasi</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3. Ardiansyah R.A_CV.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>dengan fokus pada mata pelajaran Biologi, Fisika,, Kimia dan Matematika. Memiliki dasar yang kuat, Kerja Sama, dalam ilmu pengetahuan alam yang mendukung, Bertanggung Jawab kemampuan analitis dan problem solving.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Achmad Bayu Setiawan.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Surabaya PENGALAMAN</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SOFTSKILL, Menguasai penggunaan, mikrokontroler seperti Arduino, Mampu bekerja sama dengan tim, dan ESP32 (pernah mengerjakan, Mampu berkomunikasi dengan baik</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Aurellio Indra Dewanta.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CV - Muhammad Raihan Al Farizi.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>D3 Sistem Informasi</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Memahami html, css dan Java script, Sudah mempelajari android studio</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CV ALBERT UNIVERSITAS DINAMIKA (1)-2.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Jl raya kedung baruk</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Soft Skill : Mampu ber</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CV Anggi Riantika - Anggi Riantika.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>D3 Sistem Informasi</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>a. Desain (Figma, Canva), b. Microsoft Excel &amp; Word, c. HTML &amp; CSS dasar, d. PHP, e. Komunikasi &amp; manajemen acara, Terbuka untuk peluang magang di bidang IT dan desain digital.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>CV ATS Wahyu Adinda Nur Ashifa - KIDZANIA.pdf</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Undergraduate Information System</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Wireframing, Design Thinking, Prototyping, Usability Testing, Business Process Modeling,, System Analysis, ERP Development., Soft Skills:</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2nd Place UI Design Mobile Apps in COMPILER 2025 Feb 2025, By Universitas Bakrie, Jakarta Selatan, 3rd Place AIdeathon International Student Competition 2025 Jan 2025, by Universitas Dian Nuswantoro, Semarang, Grand Finalist of Excel Rookie Competition in the 12th Annual Jakarta Marketing Week May 2024, by Mark Plus Corp attachment, Funding Recipient of P2MW &amp; Part of KMI Expo XIV – Wants in Undiksha, Bali Nov 2023, by Ditjen Diktiristek – Kemendikburistek attachment1 attachment2, Winner of UI/UX Design Mistik (Mini Gemastik) Competition 2022 Aug 2022, by Himpunan Mahasiswa Sistem Informasi Universitas Dinamika</t>
         </is>
       </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CV WILDAN.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Fillah Arhinzah.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Status : M a h asiswa, Dapat bekerja dalam tim</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mahardika Utama Dwika Putra.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Jenis Kelamin : L aki, Laki, Mampu bekerja dalam tim Kewarganegaraan : Indonesia, Public speaking Email : m ahardika0021@gmail.com, Berkomunikasi secara baik Status : M ahasiswa</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Zefanya Septianus Vidianto.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Indonesia, Mampu berkomunikasi dengan baik Inggris Pasif, Mampu Mengambil keputusan secara bijak, Mampu memanajemen Tugas dan kewajiban TOOLS, Mampu bekerja sama dengan tim, Mampu beradaptasi sesuai lingkungan Arduino IDE, Memiliki kemampuan public speaking dengan baik CodeBlock, Hardskill :, MATLAB, 1. Pemrograman, Protheus, Menguasai</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
